--- a/Code/Results/Cases/Case_9_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00501763499227</v>
+        <v>1.004763879216712</v>
       </c>
       <c r="D2">
-        <v>1.026016666065412</v>
+        <v>1.025255744574121</v>
       </c>
       <c r="E2">
-        <v>1.020694552071027</v>
+        <v>1.020486227965666</v>
       </c>
       <c r="F2">
-        <v>1.031446171965909</v>
+        <v>1.031257141866755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050945726832299</v>
+        <v>1.050568162202286</v>
       </c>
       <c r="J2">
-        <v>1.027049298238106</v>
+        <v>1.026803031144507</v>
       </c>
       <c r="K2">
-        <v>1.037125066379828</v>
+        <v>1.036374091962228</v>
       </c>
       <c r="L2">
-        <v>1.031872915210237</v>
+        <v>1.031667348286663</v>
       </c>
       <c r="M2">
-        <v>1.042484128461532</v>
+        <v>1.042297535297863</v>
       </c>
       <c r="N2">
-        <v>1.012939110767491</v>
+        <v>1.014318774821709</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04219572653073</v>
+        <v>1.042048050883708</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037320900849733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036798684274687</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021788362818628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008581623123892</v>
+        <v>1.008197256987475</v>
       </c>
       <c r="D3">
-        <v>1.02843174662701</v>
+        <v>1.027488929085347</v>
       </c>
       <c r="E3">
-        <v>1.023456320250509</v>
+        <v>1.023141913073854</v>
       </c>
       <c r="F3">
-        <v>1.034145354966295</v>
+        <v>1.033871190059242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051733217299541</v>
+        <v>1.051263401772422</v>
       </c>
       <c r="J3">
-        <v>1.028841047180514</v>
+        <v>1.028466923823223</v>
       </c>
       <c r="K3">
-        <v>1.038713316776222</v>
+        <v>1.037781762281184</v>
       </c>
       <c r="L3">
-        <v>1.033797618365596</v>
+        <v>1.033487009747761</v>
       </c>
       <c r="M3">
-        <v>1.044359213434644</v>
+        <v>1.04408827647628</v>
       </c>
       <c r="N3">
-        <v>1.01354019430807</v>
+        <v>1.014762395191871</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043679725570164</v>
+        <v>1.04346529804235</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038441266355331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037791086599862</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022061005236309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010848341919715</v>
+        <v>1.010381737227131</v>
       </c>
       <c r="D4">
-        <v>1.02996876320398</v>
+        <v>1.028910887792111</v>
       </c>
       <c r="E4">
-        <v>1.025218671483</v>
+        <v>1.024837375594774</v>
       </c>
       <c r="F4">
-        <v>1.035868232560071</v>
+        <v>1.03554037831962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052220930884874</v>
+        <v>1.051692648890073</v>
       </c>
       <c r="J4">
-        <v>1.029978558773222</v>
+        <v>1.029523554367096</v>
       </c>
       <c r="K4">
-        <v>1.039718461319626</v>
+        <v>1.03867246951772</v>
       </c>
       <c r="L4">
-        <v>1.035021966504631</v>
+        <v>1.034644999467731</v>
       </c>
       <c r="M4">
-        <v>1.045552206494261</v>
+        <v>1.045227980613258</v>
       </c>
       <c r="N4">
-        <v>1.01392184736719</v>
+        <v>1.015044183591096</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044623894837325</v>
+        <v>1.044367293203348</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039152888530402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038421873622321</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022231003271457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011794463309124</v>
+        <v>1.011293727547513</v>
       </c>
       <c r="D5">
-        <v>1.030612411189725</v>
+        <v>1.029506730029359</v>
       </c>
       <c r="E5">
-        <v>1.02595580440739</v>
+        <v>1.025546724225394</v>
       </c>
       <c r="F5">
-        <v>1.036588492588759</v>
+        <v>1.036238341365669</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052422523243021</v>
+        <v>1.051869921825582</v>
       </c>
       <c r="J5">
-        <v>1.030453957673166</v>
+        <v>1.02996530193158</v>
       </c>
       <c r="K5">
-        <v>1.040139192677703</v>
+        <v>1.039045604914276</v>
       </c>
       <c r="L5">
-        <v>1.03553373422495</v>
+        <v>1.035129174676301</v>
       </c>
       <c r="M5">
-        <v>1.046050458090802</v>
+        <v>1.045704079296273</v>
       </c>
       <c r="N5">
-        <v>1.014081701194304</v>
+        <v>1.015162265957986</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045018225223743</v>
+        <v>1.044744091284925</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039457557360547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038693599616367</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022301987615294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011955666434363</v>
+        <v>1.011449133662306</v>
       </c>
       <c r="D6">
-        <v>1.030724394570509</v>
+        <v>1.029610665276908</v>
       </c>
       <c r="E6">
-        <v>1.026081672716042</v>
+        <v>1.02566786753734</v>
       </c>
       <c r="F6">
-        <v>1.036710916294592</v>
+        <v>1.036356982588308</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052458168567333</v>
+        <v>1.051901471627866</v>
       </c>
       <c r="J6">
-        <v>1.030536289268925</v>
+        <v>1.030041914076621</v>
       </c>
       <c r="K6">
-        <v>1.040213742602086</v>
+        <v>1.039112139507101</v>
       </c>
       <c r="L6">
-        <v>1.035621783909556</v>
+        <v>1.035212530649458</v>
       </c>
       <c r="M6">
-        <v>1.046135630547358</v>
+        <v>1.04578549265596</v>
       </c>
       <c r="N6">
-        <v>1.014109799026601</v>
+        <v>1.015183058875881</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045085633090275</v>
+        <v>1.044808524121205</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039519021030955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038750265366455</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022315073152977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010868706885632</v>
+        <v>1.01040850281593</v>
       </c>
       <c r="D7">
-        <v>1.029988748991186</v>
+        <v>1.028935041319299</v>
       </c>
       <c r="E7">
-        <v>1.025235054932633</v>
+        <v>1.024859032439644</v>
       </c>
       <c r="F7">
-        <v>1.035882703721157</v>
+        <v>1.035558915494155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052229234624385</v>
+        <v>1.051703175192914</v>
       </c>
       <c r="J7">
-        <v>1.029992427251532</v>
+        <v>1.029543659446837</v>
       </c>
       <c r="K7">
-        <v>1.039735338255179</v>
+        <v>1.038693462802901</v>
       </c>
       <c r="L7">
-        <v>1.035035261515455</v>
+        <v>1.034663506384358</v>
       </c>
       <c r="M7">
-        <v>1.045563654813114</v>
+        <v>1.045243448613679</v>
       </c>
       <c r="N7">
-        <v>1.013927633905463</v>
+        <v>1.015076296085594</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044632955362602</v>
+        <v>1.044379535023259</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039184949639397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038458845924608</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022236745258729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0062398187143</v>
+        <v>1.005962945673411</v>
       </c>
       <c r="D8">
-        <v>1.026852020152318</v>
+        <v>1.026044100980619</v>
       </c>
       <c r="E8">
-        <v>1.021641086104605</v>
+        <v>1.021414286034799</v>
       </c>
       <c r="F8">
-        <v>1.032369211475255</v>
+        <v>1.032164791392523</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051223170154792</v>
+        <v>1.050822117848875</v>
       </c>
       <c r="J8">
-        <v>1.027668552572866</v>
+        <v>1.027399578308085</v>
       </c>
       <c r="K8">
-        <v>1.037680144898937</v>
+        <v>1.036882476393861</v>
       </c>
       <c r="L8">
-        <v>1.032535682014432</v>
+        <v>1.032311794283487</v>
       </c>
       <c r="M8">
-        <v>1.04312787022669</v>
+        <v>1.042926007445791</v>
       </c>
       <c r="N8">
-        <v>1.01314830783261</v>
+        <v>1.014557627730894</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042705203602479</v>
+        <v>1.042545443215149</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037736327402576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037183362267832</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021890326502348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9977568286189851</v>
+        <v>0.9977992204269577</v>
       </c>
       <c r="D9">
-        <v>1.021104049994444</v>
+        <v>1.02073484746233</v>
       </c>
       <c r="E9">
-        <v>1.015101665249268</v>
+        <v>1.015133598310606</v>
       </c>
       <c r="F9">
-        <v>1.025982635506675</v>
+        <v>1.02598572484672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049271583234164</v>
+        <v>1.049092404093728</v>
       </c>
       <c r="J9">
-        <v>1.023389048481193</v>
+        <v>1.023429933972753</v>
       </c>
       <c r="K9">
-        <v>1.033863762759416</v>
+        <v>1.03350024099678</v>
       </c>
       <c r="L9">
-        <v>1.027954389514159</v>
+        <v>1.027985824027701</v>
       </c>
       <c r="M9">
-        <v>1.038667772849921</v>
+        <v>1.038670815251846</v>
       </c>
       <c r="N9">
-        <v>1.011711690162156</v>
+        <v>1.013508263751677</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039175337714724</v>
+        <v>1.039177745576293</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035034701081101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034788431556806</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021219936197469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9919250110543476</v>
+        <v>0.9922225398508198</v>
       </c>
       <c r="D10">
-        <v>1.017166370200326</v>
+        <v>1.01712354221105</v>
       </c>
       <c r="E10">
-        <v>1.01067352872249</v>
+        <v>1.010911757565172</v>
       </c>
       <c r="F10">
-        <v>1.021708910189439</v>
+        <v>1.021876880951962</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04787884875246</v>
+        <v>1.047864635979448</v>
       </c>
       <c r="J10">
-        <v>1.020462712321142</v>
+        <v>1.020748167174961</v>
       </c>
       <c r="K10">
-        <v>1.031232446747003</v>
+        <v>1.031190358677442</v>
       </c>
       <c r="L10">
-        <v>1.024852706894614</v>
+        <v>1.025086752653665</v>
       </c>
       <c r="M10">
-        <v>1.035696962326505</v>
+        <v>1.035862065138268</v>
       </c>
       <c r="N10">
-        <v>1.010734736138084</v>
+        <v>1.012914179405156</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036875670784804</v>
+        <v>1.037006331063549</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033191042239312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033173730039258</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020754589415834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9897533629081862</v>
+        <v>0.9901866753821663</v>
       </c>
       <c r="D11">
-        <v>1.0157275034736</v>
+        <v>1.015833649660038</v>
       </c>
       <c r="E11">
-        <v>1.009295567694854</v>
+        <v>1.009642183104113</v>
       </c>
       <c r="F11">
-        <v>1.020767165936739</v>
+        <v>1.021022566788275</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047454072259534</v>
+        <v>1.047516320610275</v>
       </c>
       <c r="J11">
-        <v>1.019558715353726</v>
+        <v>1.019973476360952</v>
       </c>
       <c r="K11">
-        <v>1.030358794415471</v>
+        <v>1.030463018905883</v>
       </c>
       <c r="L11">
-        <v>1.024044286810473</v>
+        <v>1.024384524352857</v>
       </c>
       <c r="M11">
-        <v>1.035307790256979</v>
+        <v>1.035558627231828</v>
       </c>
       <c r="N11">
-        <v>1.010473157319496</v>
+        <v>1.012965510112676</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037004635820406</v>
+        <v>1.03720304487797</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032606273540297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032695628057253</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02063144957343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9890787574974764</v>
+        <v>0.9895579855969979</v>
       </c>
       <c r="D12">
-        <v>1.015282645272003</v>
+        <v>1.015437369271696</v>
       </c>
       <c r="E12">
-        <v>1.008977400864296</v>
+        <v>1.009359654426782</v>
       </c>
       <c r="F12">
-        <v>1.020747657356989</v>
+        <v>1.021032712762959</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047360519501015</v>
+        <v>1.047448039515463</v>
       </c>
       <c r="J12">
-        <v>1.019352625260093</v>
+        <v>1.019810940401151</v>
       </c>
       <c r="K12">
-        <v>1.030122796283988</v>
+        <v>1.03027467171675</v>
       </c>
       <c r="L12">
-        <v>1.023934605680836</v>
+        <v>1.024309708535929</v>
       </c>
       <c r="M12">
-        <v>1.035487874969181</v>
+        <v>1.035767756027443</v>
       </c>
       <c r="N12">
-        <v>1.010435159877858</v>
+        <v>1.013045300411305</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03747391238592</v>
+        <v>1.037695219838354</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032439414218129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032562462533014</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020608255822663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9895225089878116</v>
+        <v>0.9899712817512821</v>
       </c>
       <c r="D13">
-        <v>1.01558772833758</v>
+        <v>1.015709698252559</v>
       </c>
       <c r="E13">
-        <v>1.009464598534532</v>
+        <v>1.009820873007869</v>
       </c>
       <c r="F13">
-        <v>1.021455597715549</v>
+        <v>1.021721645309434</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047528844548475</v>
+        <v>1.047600149965662</v>
       </c>
       <c r="J13">
-        <v>1.019682740899768</v>
+        <v>1.020112025711539</v>
       </c>
       <c r="K13">
-        <v>1.030379211198992</v>
+        <v>1.030498944740781</v>
       </c>
       <c r="L13">
-        <v>1.024369257985288</v>
+        <v>1.024718898213387</v>
       </c>
       <c r="M13">
-        <v>1.036140277424722</v>
+        <v>1.036401520387386</v>
       </c>
       <c r="N13">
-        <v>1.010572557819507</v>
+        <v>1.013121029348453</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038266704998383</v>
+        <v>1.038473222934614</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032618208227676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032718285361186</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020665068639801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9903392300687608</v>
+        <v>0.9907329092445241</v>
       </c>
       <c r="D14">
-        <v>1.016141809353602</v>
+        <v>1.016204630790876</v>
       </c>
       <c r="E14">
-        <v>1.010168554318106</v>
+        <v>1.010479632292361</v>
       </c>
       <c r="F14">
-        <v>1.02227843936929</v>
+        <v>1.022509799880104</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047765045063418</v>
+        <v>1.047806515518984</v>
       </c>
       <c r="J14">
-        <v>1.020155742459003</v>
+        <v>1.020532570340334</v>
       </c>
       <c r="K14">
-        <v>1.030782180974679</v>
+        <v>1.030843864735715</v>
       </c>
       <c r="L14">
-        <v>1.024917941809362</v>
+        <v>1.025223300960878</v>
       </c>
       <c r="M14">
-        <v>1.03680853575684</v>
+        <v>1.037035772330854</v>
       </c>
       <c r="N14">
-        <v>1.010747912004067</v>
+        <v>1.013173387850085</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038968391839141</v>
+        <v>1.039148002752559</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032904551997146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032963719127107</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020741424788628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9907864701340886</v>
+        <v>0.9911505511928489</v>
       </c>
       <c r="D15">
-        <v>1.01644589546655</v>
+        <v>1.016476768312709</v>
       </c>
       <c r="E15">
-        <v>1.010524311061288</v>
+        <v>1.010811397509241</v>
       </c>
       <c r="F15">
-        <v>1.022652771882669</v>
+        <v>1.022865397570019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047883357823322</v>
+        <v>1.047908622245717</v>
       </c>
       <c r="J15">
-        <v>1.020394187445814</v>
+        <v>1.020742820119845</v>
       </c>
       <c r="K15">
-        <v>1.030993947529232</v>
+        <v>1.031024265506976</v>
       </c>
       <c r="L15">
-        <v>1.025179606016443</v>
+        <v>1.025461455461642</v>
       </c>
       <c r="M15">
-        <v>1.037090143426738</v>
+        <v>1.037299008452071</v>
       </c>
       <c r="N15">
-        <v>1.010831489363821</v>
+        <v>1.013190230930004</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039228530445585</v>
+        <v>1.039393615888194</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033060168069086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033097726563713</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02077951992675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.993171588455144</v>
+        <v>0.9933866381308246</v>
       </c>
       <c r="D16">
-        <v>1.018059274220913</v>
+        <v>1.017925239182205</v>
       </c>
       <c r="E16">
-        <v>1.012311298055083</v>
+        <v>1.012478509507284</v>
       </c>
       <c r="F16">
-        <v>1.024359526825041</v>
+        <v>1.024476979203974</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048461693265794</v>
+        <v>1.048402994328897</v>
       </c>
       <c r="J16">
-        <v>1.021581109179392</v>
+        <v>1.021787489892284</v>
       </c>
       <c r="K16">
-        <v>1.032074199375736</v>
+        <v>1.031942468258663</v>
       </c>
       <c r="L16">
-        <v>1.026425734387676</v>
+        <v>1.026590030350011</v>
       </c>
       <c r="M16">
-        <v>1.038267035016753</v>
+        <v>1.03838250106303</v>
       </c>
       <c r="N16">
-        <v>1.011223009361597</v>
+        <v>1.013257622942028</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040120007666832</v>
+        <v>1.040211273825602</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033827124438987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033750404281993</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020964759750647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9945754856578596</v>
+        <v>0.9947126676470287</v>
       </c>
       <c r="D17">
-        <v>1.019008446144537</v>
+        <v>1.018784184271875</v>
       </c>
       <c r="E17">
-        <v>1.013315020397845</v>
+        <v>1.013419817251298</v>
       </c>
       <c r="F17">
-        <v>1.025233646125311</v>
+        <v>1.025300836357351</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048778481642244</v>
+        <v>1.048673754662065</v>
       </c>
       <c r="J17">
-        <v>1.022243727880277</v>
+        <v>1.022375557581107</v>
       </c>
       <c r="K17">
-        <v>1.032691199636666</v>
+        <v>1.032470684191725</v>
       </c>
       <c r="L17">
-        <v>1.027093548472853</v>
+        <v>1.02719656989125</v>
       </c>
       <c r="M17">
-        <v>1.038813245407359</v>
+        <v>1.038879331056918</v>
       </c>
       <c r="N17">
-        <v>1.011431427993947</v>
+        <v>1.013310561735727</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040422653731614</v>
+        <v>1.040474894065535</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034265963188124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034126714659711</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021067220120625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9952548194585</v>
+        <v>0.995359163775614</v>
       </c>
       <c r="D18">
-        <v>1.019460050241801</v>
+        <v>1.019195605137927</v>
       </c>
       <c r="E18">
-        <v>1.013710136479524</v>
+        <v>1.013789012635737</v>
       </c>
       <c r="F18">
-        <v>1.02542310442857</v>
+        <v>1.025468471925626</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04889209192476</v>
+        <v>1.048766644840082</v>
       </c>
       <c r="J18">
-        <v>1.022498300426147</v>
+        <v>1.022598650100975</v>
       </c>
       <c r="K18">
-        <v>1.032951124545704</v>
+        <v>1.032691024183839</v>
       </c>
       <c r="L18">
-        <v>1.027296338376704</v>
+        <v>1.027373900188888</v>
       </c>
       <c r="M18">
-        <v>1.038816971683786</v>
+        <v>1.038861605183208</v>
       </c>
       <c r="N18">
-        <v>1.011493627260503</v>
+        <v>1.013312626181327</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040187787202867</v>
+        <v>1.040223077095362</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034438072278895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034269699548812</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021101812960799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9952771649458835</v>
+        <v>0.9953850555532424</v>
       </c>
       <c r="D19">
-        <v>1.019466898104676</v>
+        <v>1.019205167125518</v>
       </c>
       <c r="E19">
-        <v>1.013546994195094</v>
+        <v>1.013629587909415</v>
       </c>
       <c r="F19">
-        <v>1.024981412638679</v>
+        <v>1.025028244022433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048826412667594</v>
+        <v>1.048701890809619</v>
       </c>
       <c r="J19">
-        <v>1.022384111973742</v>
+        <v>1.022487896643193</v>
       </c>
       <c r="K19">
-        <v>1.032895071463079</v>
+        <v>1.032637617586326</v>
       </c>
       <c r="L19">
-        <v>1.027072603510852</v>
+        <v>1.027153827733176</v>
       </c>
       <c r="M19">
-        <v>1.038320121700539</v>
+        <v>1.038366198608474</v>
       </c>
       <c r="N19">
-        <v>1.011426694626924</v>
+        <v>1.013251324199603</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03946919209839</v>
+        <v>1.039505635158249</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034404851748011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034238974213488</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021076470580208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934546926813516</v>
+        <v>0.9936650794561327</v>
       </c>
       <c r="D20">
-        <v>1.018212408625023</v>
+        <v>1.018070489796701</v>
       </c>
       <c r="E20">
-        <v>1.011835661281813</v>
+        <v>1.01200302589056</v>
       </c>
       <c r="F20">
-        <v>1.022828853172523</v>
+        <v>1.022940780424494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048257808882316</v>
+        <v>1.048193269291452</v>
       </c>
       <c r="J20">
-        <v>1.021240277622276</v>
+        <v>1.021442404886528</v>
       </c>
       <c r="K20">
-        <v>1.03194239990187</v>
+        <v>1.031802863205694</v>
       </c>
       <c r="L20">
-        <v>1.02567353921347</v>
+        <v>1.025838049781622</v>
       </c>
       <c r="M20">
-        <v>1.036481820756692</v>
+        <v>1.036591891656682</v>
       </c>
       <c r="N20">
-        <v>1.010997792078919</v>
+        <v>1.013002310726937</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037486235242508</v>
+        <v>1.037573345009831</v>
       </c>
       <c r="Q20">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033735202986217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033653088805953</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020880433267337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9889990485377902</v>
+        <v>0.989503704099438</v>
       </c>
       <c r="D21">
-        <v>1.015200014863359</v>
+        <v>1.015376784554194</v>
       </c>
       <c r="E21">
-        <v>1.008413640076064</v>
+        <v>1.008821000614746</v>
       </c>
       <c r="F21">
-        <v>1.019452318159119</v>
+        <v>1.019753229957602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047148898783279</v>
+        <v>1.047246455571433</v>
       </c>
       <c r="J21">
-        <v>1.018964025890093</v>
+        <v>1.019446921966479</v>
       </c>
       <c r="K21">
-        <v>1.029899029065021</v>
+        <v>1.030072579761215</v>
       </c>
       <c r="L21">
-        <v>1.023237347632231</v>
+        <v>1.02363716158891</v>
       </c>
       <c r="M21">
-        <v>1.034074299831391</v>
+        <v>1.034369792099904</v>
       </c>
       <c r="N21">
-        <v>1.010230258567175</v>
+        <v>1.012886069495061</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035539895853538</v>
+        <v>1.03577375975723</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032293693986241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032433278186297</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020528341822738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9861619873325663</v>
+        <v>0.9868530597450208</v>
       </c>
       <c r="D22">
-        <v>1.013280985557739</v>
+        <v>1.013659670485547</v>
       </c>
       <c r="E22">
-        <v>1.006258636816128</v>
+        <v>1.006817998072816</v>
       </c>
       <c r="F22">
-        <v>1.017352610324565</v>
+        <v>1.017773247498408</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046433483054356</v>
+        <v>1.04663356780781</v>
       </c>
       <c r="J22">
-        <v>1.017521793500968</v>
+        <v>1.018181330487401</v>
       </c>
       <c r="K22">
-        <v>1.028593856240096</v>
+        <v>1.028965298032352</v>
       </c>
       <c r="L22">
-        <v>1.021707120190515</v>
+        <v>1.022255588366772</v>
       </c>
       <c r="M22">
-        <v>1.032587972256711</v>
+        <v>1.033000648240806</v>
       </c>
       <c r="N22">
-        <v>1.009744941172368</v>
+        <v>1.012806278714528</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03436355808613</v>
+        <v>1.034690166194706</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031357322490156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031635528774893</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020300864271313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9876647327039738</v>
+        <v>0.9882457000894694</v>
       </c>
       <c r="D23">
-        <v>1.014292374041395</v>
+        <v>1.014555961084071</v>
       </c>
       <c r="E23">
-        <v>1.00739871687251</v>
+        <v>1.007868143765809</v>
       </c>
       <c r="F23">
-        <v>1.018464856363225</v>
+        <v>1.018814827378277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046810813656614</v>
+        <v>1.046952336356115</v>
       </c>
       <c r="J23">
-        <v>1.018282928514782</v>
+        <v>1.018838163717948</v>
       </c>
       <c r="K23">
-        <v>1.029279534460786</v>
+        <v>1.02953820836718</v>
       </c>
       <c r="L23">
-        <v>1.022515565473537</v>
+        <v>1.022976087594653</v>
       </c>
       <c r="M23">
-        <v>1.033374632727017</v>
+        <v>1.03371815062457</v>
       </c>
       <c r="N23">
-        <v>1.009999832107186</v>
+        <v>1.012804296027673</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03498615218977</v>
+        <v>1.035258025621984</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031832459628313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03202998988991</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020417233052837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9934775100787367</v>
+        <v>0.9936873594874421</v>
       </c>
       <c r="D24">
-        <v>1.018217804023708</v>
+        <v>1.018074744154041</v>
       </c>
       <c r="E24">
-        <v>1.011826152148167</v>
+        <v>1.011993278646856</v>
       </c>
       <c r="F24">
-        <v>1.022783437322885</v>
+        <v>1.022894961771861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048248272316362</v>
+        <v>1.04818309541273</v>
       </c>
       <c r="J24">
-        <v>1.021228970525662</v>
+        <v>1.021430593640124</v>
       </c>
       <c r="K24">
-        <v>1.031932373448497</v>
+        <v>1.031791711754344</v>
       </c>
       <c r="L24">
-        <v>1.025648722140729</v>
+        <v>1.025813002251381</v>
       </c>
       <c r="M24">
-        <v>1.036421924629573</v>
+        <v>1.036531601564219</v>
       </c>
       <c r="N24">
-        <v>1.010988577752376</v>
+        <v>1.0129913235277</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03739789394674</v>
+        <v>1.037484696257294</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03370062989018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03361504793768</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020874414773266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000000585276137</v>
+        <v>0.9999489141363193</v>
       </c>
       <c r="D25">
-        <v>1.02263188273291</v>
+        <v>1.022140292760909</v>
       </c>
       <c r="E25">
-        <v>1.016826456296206</v>
+        <v>1.016782095996133</v>
       </c>
       <c r="F25">
-        <v>1.027664109779209</v>
+        <v>1.027606293886914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049804926134603</v>
+        <v>1.049563825130821</v>
       </c>
       <c r="J25">
-        <v>1.024527929724341</v>
+        <v>1.024477997646788</v>
       </c>
       <c r="K25">
-        <v>1.034888740524197</v>
+        <v>1.034404363419502</v>
       </c>
       <c r="L25">
-        <v>1.029169060315158</v>
+        <v>1.029125360010086</v>
       </c>
       <c r="M25">
-        <v>1.039847635183717</v>
+        <v>1.039790656646486</v>
       </c>
       <c r="N25">
-        <v>1.012095901413613</v>
+        <v>1.013756234049998</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040109120757585</v>
+        <v>1.040064026039783</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035788073291888</v>
+        <v>1.035459154355573</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02140257290906</v>
       </c>
     </row>
   </sheetData>
